--- a/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,62 +473,122 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>71.27631147889767</v>
+        <v>96.03527531683176</v>
       </c>
       <c r="C2" t="n">
-        <v>48.791221904628</v>
+        <v>76.34976890707787</v>
       </c>
       <c r="D2" t="n">
-        <v>93.4256470997933</v>
+        <v>115.662164806049</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45034</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45048</v>
+        <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>80.74339935208583</v>
+        <v>78.78712829821028</v>
       </c>
       <c r="C3" t="n">
-        <v>59.17219696744063</v>
+        <v>57.4221923577922</v>
       </c>
       <c r="D3" t="n">
-        <v>101.5371942346208</v>
+        <v>99.14659930462351</v>
       </c>
       <c r="E3" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45063</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>73.13277657137967</v>
+        <v>69.33727775278678</v>
       </c>
       <c r="C4" t="n">
-        <v>49.34958537492085</v>
+        <v>49.57177962767018</v>
       </c>
       <c r="D4" t="n">
-        <v>96.94964746818385</v>
+        <v>91.92333283152428</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45056</v>
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71.40978190953913</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.47490142167266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.99412942728999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>73.15788440038085</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52.94548277836545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.82384479314281</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.28169414582553</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58.7860625047561</v>
+      </c>
+      <c r="D7" t="n">
+        <v>98.68726318694837</v>
+      </c>
+      <c r="E7" t="n">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45041</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,25 +654,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>233.3656924003006</v>
+        <v>290.2006051202574</v>
       </c>
       <c r="C2" t="n">
-        <v>15.27631147889767</v>
+        <v>17.03527531683176</v>
       </c>
       <c r="D2" t="n">
-        <v>15.27631147889767</v>
+        <v>17.03527531683176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.272791276408887</v>
+        <v>0.2156363964155919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.272791276408887</v>
+        <v>0.2156363964155919</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2400495630552661</v>
+        <v>0.1946496246084815</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -620,27 +680,79 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>795.9661296616473</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28.21287170178972</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.21287170178972</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2636716981475675</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2636716981475675</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3037118013526183</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>118.2563510096566</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.87457360128003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.803608246018314</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1419627086899879</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09607871000583375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1301039359365492</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>1499.718495812823</v>
-      </c>
-      <c r="C3" t="n">
-        <v>38.7261990881215</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.69468860964692</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6820825973900194</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6820825973900194</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5397967835595592</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="n">
+        <v>1824.853655050797</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42.71830585417447</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.71830585417447</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3530438500344998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3530438500344998</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4287228291316623</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45015</v>
+        <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>96.03527531683176</v>
+        <v>78.78712822563006</v>
       </c>
       <c r="C2" t="n">
-        <v>76.34976890707787</v>
+        <v>58.93780729598465</v>
       </c>
       <c r="D2" t="n">
-        <v>115.662164806049</v>
+        <v>99.72989900765455</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45024</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>78.78712829821028</v>
+        <v>69.3372776796546</v>
       </c>
       <c r="C3" t="n">
-        <v>57.4221923577922</v>
+        <v>49.13734435357716</v>
       </c>
       <c r="D3" t="n">
-        <v>99.14659930462351</v>
+        <v>89.37751719526651</v>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45020</v>
@@ -513,82 +513,82 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>69.33727775278678</v>
+        <v>71.40978190953008</v>
       </c>
       <c r="C4" t="n">
-        <v>49.57177962767018</v>
+        <v>50.75849693928349</v>
       </c>
       <c r="D4" t="n">
-        <v>91.92333283152428</v>
+        <v>93.20688786528754</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>71.40978190953913</v>
+        <v>73.15788440075858</v>
       </c>
       <c r="C5" t="n">
-        <v>50.47490142167266</v>
+        <v>52.35069741892116</v>
       </c>
       <c r="D5" t="n">
-        <v>91.99412942728999</v>
+        <v>92.31662145244788</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45027</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B6" t="n">
-        <v>73.15788440038085</v>
+        <v>78.28169414581066</v>
       </c>
       <c r="C6" t="n">
-        <v>52.94548277836545</v>
+        <v>56.81311999597063</v>
       </c>
       <c r="D6" t="n">
-        <v>92.82384479314281</v>
+        <v>98.8443593743666</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="B7" t="n">
-        <v>78.28169414582553</v>
+        <v>71.50999216846128</v>
       </c>
       <c r="C7" t="n">
-        <v>58.7860625047561</v>
+        <v>49.43133138128089</v>
       </c>
       <c r="D7" t="n">
-        <v>98.68726318694837</v>
+        <v>94.15737811859933</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45041</v>
+        <v>45056</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,105 +654,79 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>290.2006051202574</v>
+        <v>795.9661337570403</v>
       </c>
       <c r="C2" t="n">
-        <v>17.03527531683176</v>
+        <v>28.21287177436994</v>
       </c>
       <c r="D2" t="n">
-        <v>17.03527531683176</v>
+        <v>28.21287177436994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2156363964155919</v>
+        <v>0.2636716988258873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2156363964155919</v>
+        <v>0.2636716988258873</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1946496246084815</v>
+        <v>0.303711802252594</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>795.9661296616473</v>
+        <v>118.2563510950887</v>
       </c>
       <c r="C3" t="n">
-        <v>28.21287170178972</v>
+        <v>10.8745736052081</v>
       </c>
       <c r="D3" t="n">
-        <v>28.21287170178972</v>
+        <v>8.803608270524631</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2636716981475675</v>
+        <v>0.141962709035618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2636716981475675</v>
+        <v>0.09607871000594832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3037118013526183</v>
+        <v>0.1301039362898096</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>118.2563510096566</v>
+        <v>1542.906599428124</v>
       </c>
       <c r="C4" t="n">
-        <v>10.87457360128003</v>
+        <v>39.27984978876732</v>
       </c>
       <c r="D4" t="n">
-        <v>8.803608246018314</v>
+        <v>39.11414901132531</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1419627086899879</v>
+        <v>0.6697162606903847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09607871000583375</v>
+        <v>0.6697162606903847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1301039359365492</v>
+        <v>0.5446562220738546</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1824.853655050797</v>
-      </c>
-      <c r="C5" t="n">
-        <v>42.71830585417447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.71830585417447</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3530438500344998</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3530438500344998</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4287228291316623</v>
-      </c>
-      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431087/OBACAC4431087_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>78.78712822563006</v>
       </c>
       <c r="C2" t="n">
-        <v>58.93780729598465</v>
+        <v>57.7634581013244</v>
       </c>
       <c r="D2" t="n">
-        <v>99.72989900765455</v>
+        <v>99.67704499567429</v>
       </c>
       <c r="E2" t="n">
         <v>107</v>
@@ -499,10 +499,10 @@
         <v>69.3372776796546</v>
       </c>
       <c r="C3" t="n">
-        <v>49.13734435357716</v>
+        <v>49.44573897469096</v>
       </c>
       <c r="D3" t="n">
-        <v>89.37751719526651</v>
+        <v>89.47654296062382</v>
       </c>
       <c r="E3" t="n">
         <v>71</v>
@@ -519,10 +519,10 @@
         <v>71.40978190953008</v>
       </c>
       <c r="C4" t="n">
-        <v>50.75849693928349</v>
+        <v>49.11399805061347</v>
       </c>
       <c r="D4" t="n">
-        <v>93.20688786528754</v>
+        <v>90.59010582098912</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -539,10 +539,10 @@
         <v>73.15788440075858</v>
       </c>
       <c r="C5" t="n">
-        <v>52.35069741892116</v>
+        <v>55.3947098903103</v>
       </c>
       <c r="D5" t="n">
-        <v>92.31662145244788</v>
+        <v>94.04030862402968</v>
       </c>
       <c r="E5" t="n">
         <v>56</v>
@@ -559,10 +559,10 @@
         <v>78.28169414581066</v>
       </c>
       <c r="C6" t="n">
-        <v>56.81311999597063</v>
+        <v>58.07620424142779</v>
       </c>
       <c r="D6" t="n">
-        <v>98.8443593743666</v>
+        <v>99.95217635634725</v>
       </c>
       <c r="E6" t="n">
         <v>121</v>
@@ -579,10 +579,10 @@
         <v>71.50999216846128</v>
       </c>
       <c r="C7" t="n">
-        <v>49.43133138128089</v>
+        <v>51.48423810878391</v>
       </c>
       <c r="D7" t="n">
-        <v>94.15737811859933</v>
+        <v>92.81545693296145</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
